--- a/숙제/류근관 교수님 강의 요악.xlsx
+++ b/숙제/류근관 교수님 강의 요악.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="19395" windowHeight="7845"/>
+    <workbookView xWindow="600" yWindow="60" windowWidth="19392" windowHeight="7848"/>
   </bookViews>
   <sheets>
     <sheet name="흥" sheetId="1" r:id="rId1"/>
     <sheet name="휘수업" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>1.1 통계학과 자료</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,46 @@
   </si>
   <si>
     <t>1.3 통계학과 자료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 그림을 이용한 자료 정리(1/4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 그림 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 시계열 그림 : 시간에 따른 자료의 변화나 추세 파악 적절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 줄기-잎 그림 : 줄기는 10단위 숫자, 잎은 1단위 숫자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 히스토그램 : 줄기-잎 그림에서 줄기 별로 잎의 윤곽만 그린 뒤, 그림을 시계 반대방향 90도 회전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                    자료의 분포를 확인하는데 매우 유용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 겹-줄기-잎 그림 : 줄기-잎 그림을 좌우로 나타내어 두 가지 자료를 비교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 그림을 이용한 자료 정리(2/4) - 히스토그램 그리기와 혼동요인 통제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3 그림을 이용한 자료 정리(3/4) - Napoleon Army's Russian Invasion in 1812</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4 그림을 이용한 자료 정리(4/4) - 야구통계와 선거개표</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,28 +462,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A16"/>
+  <dimension ref="A2:A43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="20.25">
+    <row r="2" spans="1:1" ht="21">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="20.25">
+    <row r="4" spans="1:1" ht="21">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="20.25">
+    <row r="5" spans="1:1" ht="21">
       <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:1">
@@ -491,9 +531,72 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="20.25">
+    <row r="16" spans="1:1" ht="21">
       <c r="A16" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="21">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="21">
+      <c r="A27" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="21">
+      <c r="A29" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="21">
+      <c r="A31" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="21">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="39" spans="1:1" ht="21">
+      <c r="A39" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="21">
+      <c r="A43" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -509,7 +612,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -522,7 +625,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/숙제/류근관 교수님 강의 요악.xlsx
+++ b/숙제/류근관 교수님 강의 요악.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>1.1 통계학과 자료</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,102 @@
   </si>
   <si>
     <t>2.4 그림을 이용한 자료 정리(4/4) - 야구통계와 선거개표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1 평균과 표준편차(1/2) - 자료의 중심 : 평균, 중앙값, 최빈치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 중심과 퍼진 정도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 히스토그램에서 자료를 요약할 때 중심(평균, 중앙값)과 중심 주위로 퍼진 정도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  (표준편차, 사분위수 범위)를 주로 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 관측치의 총합을 관측치의 개수로 나움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 중앙값, 최빈지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 중앙값(median) : 절반 이상의 숫자들이 이 값보다 크거나 같고, 동시에 절반 이상의 숫자들이 이 값보다 적거나 같은 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 최빈치(mode) : 가장 빈번하게 발생하는 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 평균과 중앙값의 관계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 히스토그램이 대칭이면 평균 = 중앙값 (이해를 위해 사진 추가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 히스토그램이 비대칭적이면 척도로서 평균보다 중앙값이 더 정확할 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 평균은 극단적인 값의 영향을 받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 중앙값은 극단적인 값의 영향을 받지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2 평균과 표준편차(2/2) - 표준편차와 자유도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* RMS(Root-Mean Square)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 계산은 표현의 역순(제곱 후 평균, 최종적으로 제곱근)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 표준편차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 관측치들이 평균으로부터 얼마나 떨어져 있는지 알려줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 자유도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 합쳐진 값들 중에서 실질적으로 독립인 값들의 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 표준편차 계산하는 경우의 자유도는 "자료의 개수 - 1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 측정오차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 관측치와 실제 값의 차이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,6 +271,58 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="10424160"/>
+          <a:ext cx="4366260" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -462,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A43"/>
+  <dimension ref="A2:A69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -586,23 +734,131 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="21">
-      <c r="A35" s="2"/>
-    </row>
-    <row r="39" spans="1:1" ht="21">
-      <c r="A39" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="21">
-      <c r="A43" s="2" t="s">
-        <v>0</v>
+    <row r="33" spans="1:1" ht="21">
+      <c r="A33" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="21">
+      <c r="A59" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/숙제/류근관 교수님 강의 요악.xlsx
+++ b/숙제/류근관 교수님 강의 요악.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>1.1 통계학과 자료</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,6 +38,134 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>- 명목 척도 : 0 or 1(있다, 아니다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 순서 척도 : A-F등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 간격 척도 : ex) 온도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 비율 척도 : 명칭, 순서, 가격 및 배율 모두 의미를 지님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3 통계학과 자료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 그림을 이용한 자료 정리(1/4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 시계열 그림 : 시간에 따른 자료의 변화나 추세 파악 적절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 줄기-잎 그림 : 줄기는 10단위 숫자, 잎은 1단위 숫자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 히스토그램 : 줄기-잎 그림에서 줄기 별로 잎의 윤곽만 그린 뒤, 그림을 시계 반대방향 90도 회전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                    자료의 분포를 확인하는데 매우 유용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 겹-줄기-잎 그림 : 줄기-잎 그림을 좌우로 나타내어 두 가지 자료를 비교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 그림을 이용한 자료 정리(2/4) - 히스토그램 그리기와 혼동요인 통제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3 그림을 이용한 자료 정리(3/4) - Napoleon Army's Russian Invasion in 1812</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4 그림을 이용한 자료 정리(4/4) - 야구통계와 선거개표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1 평균과 표준편차(1/2) - 자료의 중심 : 평균, 중앙값, 최빈치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 히스토그램에서 자료를 요약할 때 중심(평균, 중앙값)과 중심 주위로 퍼진 정도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  (표준편차, 사분위수 범위)를 주로 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 관측치의 총합을 관측치의 개수로 나움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 중앙값(median) : 절반 이상의 숫자들이 이 값보다 크거나 같고, 동시에 절반 이상의 숫자들이 이 값보다 적거나 같은 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 최빈치(mode) : 가장 빈번하게 발생하는 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 히스토그램이 대칭이면 평균 = 중앙값 (이해를 위해 사진 추가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 히스토그램이 비대칭적이면 척도로서 평균보다 중앙값이 더 정확할 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 평균은 극단적인 값의 영향을 받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 중앙값은 극단적인 값의 영향을 받지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2 평균과 표준편차(2/2) - 표준편차와 자유도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 계산은 표현의 역순(제곱 후 평균, 최종적으로 제곱근)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 관측치들이 평균으로부터 얼마나 떨어져 있는지 알려줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 합쳐진 값들 중에서 실질적으로 독립인 값들의 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 표준편차 계산하는 경우의 자유도는 "자료의 개수 - 1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 관측치와 실제 값의 차이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1 정규분포로의 근사(1/2) - 단위변환과 정규분포곡선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 단위변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>* 자료 구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -46,159 +174,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 명목 척도 : 0 or 1(있다, 아니다)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 순서 척도 : A-F등급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 간격 척도 : ex) 온도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 비율 척도 : 명칭, 순서, 가격 및 배율 모두 의미를 지님</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3 통계학과 자료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1 그림을 이용한 자료 정리(1/4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>* 그림 종류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 시계열 그림 : 시간에 따른 자료의 변화나 추세 파악 적절</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 줄기-잎 그림 : 줄기는 10단위 숫자, 잎은 1단위 숫자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 히스토그램 : 줄기-잎 그림에서 줄기 별로 잎의 윤곽만 그린 뒤, 그림을 시계 반대방향 90도 회전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                    자료의 분포를 확인하는데 매우 유용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 겹-줄기-잎 그림 : 줄기-잎 그림을 좌우로 나타내어 두 가지 자료를 비교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2 그림을 이용한 자료 정리(2/4) - 히스토그램 그리기와 혼동요인 통제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3 그림을 이용한 자료 정리(3/4) - Napoleon Army's Russian Invasion in 1812</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.4 그림을 이용한 자료 정리(4/4) - 야구통계와 선거개표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1 평균과 표준편차(1/2) - 자료의 중심 : 평균, 중앙값, 최빈치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>* 중심과 퍼진 정도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 히스토그램에서 자료를 요약할 때 중심(평균, 중앙값)과 중심 주위로 퍼진 정도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  (표준편차, 사분위수 범위)를 주로 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>* 평균</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 관측치의 총합을 관측치의 개수로 나움</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>* 중앙값, 최빈지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 중앙값(median) : 절반 이상의 숫자들이 이 값보다 크거나 같고, 동시에 절반 이상의 숫자들이 이 값보다 적거나 같은 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 최빈치(mode) : 가장 빈번하게 발생하는 값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>* 평균과 중앙값의 관계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 히스토그램이 대칭이면 평균 = 중앙값 (이해를 위해 사진 추가)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 히스토그램이 비대칭적이면 척도로서 평균보다 중앙값이 더 정확할 수 있음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 평균은 극단적인 값의 영향을 받음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 중앙값은 극단적인 값의 영향을 받지 않음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2 평균과 표준편차(2/2) - 표준편차와 자유도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>* RMS(Root-Mean Square)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 계산은 표현의 역순(제곱 후 평균, 최종적으로 제곱근)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>* 표준편차</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 관측치들이 평균으로부터 얼마나 떨어져 있는지 알려줌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>* 자유도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 합쳐진 값들 중에서 실질적으로 독립인 값들의 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 표준편차 계산하는 경우의 자유도는 "자료의 개수 - 1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>* 측정오차</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 관측치와 실제 값의 차이</t>
+    <t>* 정규분포곡선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 표준정규분포곡선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2 정규분포로의 근사(2/2) - 백분위수와 사분위수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 사분위수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1 상관관계(1/4) - 산포도와 상관관계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 결합분포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 산포도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 상관계수 - 선형관계의 방향과 강도 측정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1 상관관계(2/4) - 상관계수 구하기와 그 특징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 상관계수 구하는 공식 - 분자는 '공분산' 이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3 상관관계(3/4) - 상관계수와 관련된 유의사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 상관계수의 해석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 변수 변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 곱으로 늘어나는 경우는 왼쪽과 같으므로, 로그를 취하면 선형이 된다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +270,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +289,15 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -254,7 +327,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -262,6 +335,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -284,7 +360,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
+      <xdr:colOff>297180</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
@@ -306,6 +382,805 @@
         <a:xfrm>
           <a:off x="0" y="10424160"/>
           <a:ext cx="4366260" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="16718280"/>
+          <a:ext cx="3406140" cy="1661160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3672840" y="17084040"/>
+          <a:ext cx="2903220" cy="2697480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="18516600"/>
+          <a:ext cx="3649980" cy="1996440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21054060"/>
+          <a:ext cx="4389120" cy="2758440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1031" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="24368760"/>
+          <a:ext cx="4983480" cy="2278380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1032" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="26677620"/>
+          <a:ext cx="4930140" cy="2400300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1033" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="30159960"/>
+          <a:ext cx="4373880" cy="2804160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1034" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="32918400"/>
+          <a:ext cx="4930140" cy="2354580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1035" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="36393120"/>
+          <a:ext cx="4000500" cy="2186940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1037" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="39044880"/>
+          <a:ext cx="3368040" cy="2087880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1038" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="41140380"/>
+          <a:ext cx="4053840" cy="2293620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1040" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="43906440"/>
+          <a:ext cx="4503420" cy="2339340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1041" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="47266860"/>
+          <a:ext cx="3649980" cy="2263140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1042" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="49545240"/>
+          <a:ext cx="3840480" cy="2263140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1043" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="52837080"/>
+          <a:ext cx="3482340" cy="2293620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1044" name="Picture 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="55138320"/>
+          <a:ext cx="3962400" cy="2186940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1045" name="Picture 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="57927240"/>
+          <a:ext cx="3688080" cy="2301240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -610,15 +1485,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A69"/>
+  <dimension ref="A2:A259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="G263" sqref="G263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9.3984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1" ht="21">
@@ -635,8 +1510,8 @@
       <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+      <c r="A6" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -655,203 +1530,286 @@
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
+      <c r="A10" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
       <c r="A16" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>13</v>
+      <c r="A20" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="21">
       <c r="A27" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="21">
       <c r="A29" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="21">
       <c r="A31" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="21">
       <c r="A33" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
-        <v>23</v>
+      <c r="A35" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
-        <v>26</v>
+      <c r="A38" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="1" t="s">
-        <v>28</v>
+      <c r="A40" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="1" t="s">
-        <v>31</v>
+      <c r="A43" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="21">
       <c r="A59" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="1" t="s">
-        <v>37</v>
+      <c r="A61" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="1" t="s">
-        <v>39</v>
+      <c r="A63" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="1" t="s">
-        <v>41</v>
+      <c r="A65" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="1" t="s">
-        <v>44</v>
+      <c r="A68" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="21">
+      <c r="A71" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="3"/>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="21">
+      <c r="A132" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="21">
+      <c r="A160" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" ht="21">
+      <c r="A209" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" ht="21">
+      <c r="A234" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/숙제/류근관 교수님 강의 요악.xlsx
+++ b/숙제/류근관 교수님 강의 요악.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
   <si>
     <t>1.1 통계학과 자료</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,6 +263,66 @@
   </si>
   <si>
     <t>- 곱으로 늘어나는 경우는 왼쪽과 같으므로, 로그를 취하면 선형이 된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1 회귀분석(1/3) - 변수간의 관계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 회귀분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 위에는 2개의 선이 있다 (점선 / 실선)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 두 선은 기울기는 다르나, 모두 평균점을 지나도록 그려져 있다(즉, 평균점에서 만난다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 표준편차선 : 두 변수(키, 몸무게)의 표준화된 변수 값이 같은 점들을 이은 직선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 실선은 회귀직선, 점선은 표준편차선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 회귀직선 : 1SDx에 대해서 rSDy만큼 증가한 점들을 이은 직석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 즉, r(상관계수)이 1보다 작으면 표준편차선보다 완만해지고, 1보다 크면 더 가파르다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 평균의 그래프와 회귀직선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 회귀직선 : y를 x에 대해서 회귀 분석할 때 사용하는 직선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- x를 컴퓨터에 입력해주면 회귀직선에 의해 컴퓨터가 y값을 알려줄 수 있는 것이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex) 키를 통해 몸무게를 추정할 수 있게 된다(회귀직선을 활용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -&gt; x가 표준편차만큼 증가할 때, y는 표준편차의 r(상관계수)배만큼 증가한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2 회귀분석(2/3) - 평균의 그래프와 회귀분석방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3 회귀분석(3/3) - 회귀효과</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1181,6 +1241,241 @@
         <a:xfrm>
           <a:off x="0" y="57927240"/>
           <a:ext cx="3688080" cy="2301240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="62194440"/>
+          <a:ext cx="4366260" cy="2346960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="66004440"/>
+          <a:ext cx="3406140" cy="2255520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>321</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="69562980"/>
+          <a:ext cx="4351020" cy="2346960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>326</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>336</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="72641460"/>
+          <a:ext cx="4297680" cy="2331720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>340</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>350</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1029" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="75956160"/>
+          <a:ext cx="3840480" cy="2385060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1485,15 +1780,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A259"/>
+  <dimension ref="A2:A353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="G263" sqref="G263"/>
+    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
+      <selection activeCell="A354" sqref="A354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="9.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1" ht="21">
@@ -1810,6 +2106,94 @@
     <row r="259" spans="1:1">
       <c r="A259" s="1" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" ht="21">
+      <c r="A276" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" ht="21">
+      <c r="A309" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" ht="21">
+      <c r="A339" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" s="3"/>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
